--- a/biology/Zoologie/Colibri_de_Lillie/Colibri_de_Lillie.xlsx
+++ b/biology/Zoologie/Colibri_de_Lillie/Colibri_de_Lillie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chrysuronia lilliae
 Le Colibri de Lillie ou Colibri de Lillian (Chrysuronia lilliae) est une espèce de colibris de la sous-famille des Trochilinae.
@@ -512,7 +524,9 @@
           <t>Habitat et distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Colibri de Lillie fréquente la mangrove et occasionnellement les fruticées adjacentes dans une zone côtière restreinte au nord de la Colombie.
 </t>
@@ -543,7 +557,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans la mangrove, ce colibri préfère butiner les fleurs de Pelliciera rhizophorae.  En dehors de la mangrove, il fréquente volontiers les fleurs d'Erythrina fusca.
 </t>
@@ -574,7 +590,9 @@
           <t>Conservation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">On évalue la taille de la population entre 50 et 250 individus.  Les observations proviennent principalement de la Vía Parque Isla de Salamanca et du Sanctuaire de faune et de flore du grand marais de Santa Marta.
 </t>
@@ -605,7 +623,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">(en) « Neotropical Birds Online », Cornell Lab of Ornithology, 2 juillet 2011
 (fr) Référence Oiseaux.net : Chrysuronia cyanura (+ répartition)
